--- a/Documentos/GruposPOO.xlsx
+++ b/Documentos/GruposPOO.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubs\POO-2020-2-2-J42B\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{243D5F96-F758-477F-AFF0-4E7FF97F3D99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F2EA2-AB53-40EA-84E3-9AC2EE185085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gc_IS210-2002-J42B_fullgc_2020-" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'gc_IS210-2002-J42B_fullgc_2020-'!$A$1:$D$37</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -364,7 +375,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -854,11 +865,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1213,11 +1225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1409,79 +1421,76 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19">
-        <v>4</v>
-      </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1493,9 +1502,6 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20">
-        <v>4</v>
-      </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1507,9 +1513,6 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>4</v>
-      </c>
       <c r="B21" t="s">
         <v>35</v>
       </c>
@@ -1521,9 +1524,6 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
-        <v>4</v>
-      </c>
       <c r="B22" t="s">
         <v>101</v>
       </c>
@@ -1535,9 +1535,6 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
-        <v>4</v>
-      </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -1549,9 +1546,6 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
-        <v>5</v>
-      </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -1563,9 +1557,6 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
-        <v>5</v>
-      </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
@@ -1577,101 +1568,85 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
-        <v>5</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3">
-        <v>5</v>
-      </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
-        <v>5</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29">
-        <v>6</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3"/>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3"/>
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31">
-        <v>6</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1745,7 +1720,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D37">
+  <autoFilter ref="A1:D37" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D37">
       <sortCondition ref="A1:A37"/>
     </sortState>

--- a/Documentos/GruposPOO.xlsx
+++ b/Documentos/GruposPOO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubs\POO-2020-2-2-J42B\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954F2EA2-AB53-40EA-84E3-9AC2EE185085}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9993239D-2638-4D94-A184-23E9C942DB47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,13 +694,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,12 +883,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1228,8 +1250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1253,470 +1275,471 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D7" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="7">
+        <v>8</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="7">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="7">
+        <v>8</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="7">
+        <v>8</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7">
+        <v>8</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8"/>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="2"/>
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4">
+      <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" t="s">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
         <v>32</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="2"/>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="2"/>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C36" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3"/>
-      <c r="B26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3"/>
-      <c r="B28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3"/>
-      <c r="B30" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="2"/>
+      <c r="B37" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D37" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="3"/>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="2">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="2">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="2">
-        <v>8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="2">
-        <v>8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="2">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
